--- a/Builds/UIHelper/Data/UnitMaker/Factions.xlsx
+++ b/Builds/UIHelper/Data/UnitMaker/Factions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziggy\Desktop\Git\RTW-Region-Extractor\Solution\UIHelper\Data\UnitMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziggy\Desktop\Git\RTW-Region-Extractor\Builds\UIHelper\Data\UnitMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BD5E7F-E15E-4C3C-A548-072FFB22DAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0EEA9F-24EE-4100-B9DF-AC49D945B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="2340" windowWidth="15360" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="52">
-  <si>
-    <t>armenian_armoured_spearmen</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="69">
   <si>
     <t>romans_julii</t>
   </si>
@@ -39,9 +36,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>bruttain_core_infantry</t>
-  </si>
-  <si>
     <t>brennus_host</t>
   </si>
   <si>
@@ -181,6 +175,63 @@
   </si>
   <si>
     <t>slave</t>
+  </si>
+  <si>
+    <t>;aor units</t>
+  </si>
+  <si>
+    <t>dacia_militia_swordsmen_aor</t>
+  </si>
+  <si>
+    <t>bruttain_core_infantry_aor</t>
+  </si>
+  <si>
+    <t>massilian_swordsmen_aor</t>
+  </si>
+  <si>
+    <t>gallic_hoplite_aor</t>
+  </si>
+  <si>
+    <t>common_samnite_infantry_aor</t>
+  </si>
+  <si>
+    <t>punic_militia_aor</t>
+  </si>
+  <si>
+    <t>greek_levy_phalangites_aor</t>
+  </si>
+  <si>
+    <t>pontic_hillmen_aor</t>
+  </si>
+  <si>
+    <t>roman_town_watch_aor</t>
+  </si>
+  <si>
+    <t>armenian_armoured_spearmen_aor</t>
+  </si>
+  <si>
+    <t>persian_shield_bearer_aor</t>
+  </si>
+  <si>
+    <t>middle_eastern_nomand_spearmen_aor</t>
+  </si>
+  <si>
+    <t>libyan_skirmisher_aor</t>
+  </si>
+  <si>
+    <t>germanic_axemen_aor</t>
+  </si>
+  <si>
+    <t>egyptian_spearmen_aor</t>
+  </si>
+  <si>
+    <t>gaul_light_spearmen_aor</t>
+  </si>
+  <si>
+    <t>iberian_light_spearmen_aor</t>
+  </si>
+  <si>
+    <t>ligurian_spearmen_aor</t>
   </si>
 </sst>
 </file>
@@ -507,16 +558,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW3"/>
+  <dimension ref="A1:AW20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1:H1048576"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" customWidth="1"/>
@@ -541,449 +592,2838 @@
   <sheetData>
     <row r="1" spans="1:49" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AP1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AT1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="AV1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:49" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>2</v>
+      </c>
+      <c r="T8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" t="s">
+        <v>2</v>
+      </c>
+      <c r="V8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" t="s">
+        <v>2</v>
+      </c>
+      <c r="X8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" t="s">
+        <v>2</v>
+      </c>
+      <c r="P9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" t="s">
+        <v>2</v>
+      </c>
+      <c r="V9" t="s">
+        <v>2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10" t="s">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" t="s">
+        <v>2</v>
+      </c>
+      <c r="V10" t="s">
+        <v>2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>2</v>
+      </c>
+      <c r="X10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>2</v>
+      </c>
+      <c r="O11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>2</v>
+      </c>
+      <c r="X11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" t="s">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s">
+        <v>2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" t="s">
+        <v>2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>2</v>
+      </c>
+      <c r="X12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>2</v>
+      </c>
+      <c r="V13" t="s">
+        <v>2</v>
+      </c>
+      <c r="W13" t="s">
+        <v>2</v>
+      </c>
+      <c r="X13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>2</v>
+      </c>
+      <c r="V14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>2</v>
+      </c>
+      <c r="X14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+      <c r="P15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>2</v>
+      </c>
+      <c r="U15" t="s">
+        <v>2</v>
+      </c>
+      <c r="V15" t="s">
+        <v>2</v>
+      </c>
+      <c r="W15" t="s">
+        <v>2</v>
+      </c>
+      <c r="X15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>2</v>
+      </c>
+      <c r="M16" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s">
+        <v>2</v>
+      </c>
+      <c r="S16" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" t="s">
+        <v>2</v>
+      </c>
+      <c r="V16" t="s">
+        <v>2</v>
+      </c>
+      <c r="W16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" t="s">
+        <v>2</v>
+      </c>
+      <c r="V17" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" t="s">
+        <v>2</v>
+      </c>
+      <c r="V18" t="s">
+        <v>2</v>
+      </c>
+      <c r="W18" t="s">
+        <v>2</v>
+      </c>
+      <c r="X18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s">
+        <v>2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>2</v>
+      </c>
+      <c r="T19" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" t="s">
+        <v>2</v>
+      </c>
+      <c r="V19" t="s">
+        <v>2</v>
+      </c>
+      <c r="W19" t="s">
+        <v>2</v>
+      </c>
+      <c r="X19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s">
+        <v>2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U20" t="s">
+        <v>2</v>
+      </c>
+      <c r="V20" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>2</v>
+      </c>
+      <c r="X20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Builds/UIHelper/Data/UnitMaker/Factions.xlsx
+++ b/Builds/UIHelper/Data/UnitMaker/Factions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziggy\Desktop\Git\RTW-Region-Extractor\Builds\UIHelper\Data\UnitMaker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ziggy\Desktop\Git\RTW-Region-Extractor\Solution\UIHelper\Data\UnitMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0EEA9F-24EE-4100-B9DF-AC49D945B62C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2973562-6B06-4612-8609-03A44F801A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="74">
   <si>
     <t>romans_julii</t>
   </si>
@@ -232,6 +232,21 @@
   </si>
   <si>
     <t>ligurian_spearmen_aor</t>
+  </si>
+  <si>
+    <t>massilian_royal_citizen_guard</t>
+  </si>
+  <si>
+    <t>etruscan_hastati</t>
+  </si>
+  <si>
+    <t>early_roman_principes</t>
+  </si>
+  <si>
+    <t>early_roman_triarii</t>
+  </si>
+  <si>
+    <t>early_roman_hastati</t>
   </si>
 </sst>
 </file>
@@ -558,11 +573,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW20"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,6 +3441,112 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="X21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
